--- a/docs/test cases/taxon/TaxonRepositoryTests.xlsx
+++ b/docs/test cases/taxon/TaxonRepositoryTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Projeto\PhyloDB\docs\test cases\taxon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9712BA17-1EAE-4B68-A616-E7815465A13E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DC325E-3DFF-4630-84A6-CCC78EC31DA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="56">
   <si>
     <t>Parameter</t>
   </si>
@@ -76,21 +75,12 @@
     <t>n-elements</t>
   </si>
   <si>
-    <t>n = some &gt; 2</t>
-  </si>
-  <si>
-    <t>Empty, Singleton</t>
-  </si>
-  <si>
     <t>Singleton</t>
   </si>
   <si>
     <t>Empty</t>
   </si>
   <si>
-    <t>taxons</t>
-  </si>
-  <si>
     <t>Empty, Singleton, Null</t>
   </si>
   <si>
@@ -106,52 +96,109 @@
     <t>key</t>
   </si>
   <si>
-    <t>Existing, Non-Existing</t>
-  </si>
-  <si>
     <t>taxon</t>
   </si>
   <si>
-    <t>Existing</t>
-  </si>
-  <si>
-    <t>Non-Existing</t>
-  </si>
-  <si>
     <t>Find</t>
   </si>
   <si>
-    <t>Object</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>taxon_db</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
     <t>remove</t>
   </si>
   <si>
-    <t>Existing with relations, Non-Existing</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>n - page</t>
-  </si>
-  <si>
-    <t>n - p</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>state</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>n-versions</t>
+  </si>
+  <si>
+    <t>n = some &gt;= 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>nlist</t>
+  </si>
+  <si>
+    <t>n = some &gt; p * limit, m &lt; p * limt</t>
+  </si>
+  <si>
+    <t>plist</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>version_param</t>
+  </si>
+  <si>
+    <t>version_state</t>
+  </si>
+  <si>
+    <t>non-existent</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>exists</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>state after</t>
+  </si>
+  <si>
+    <t>created, updated</t>
+  </si>
+  <si>
+    <t>state_after</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>false, deprecated</t>
+  </si>
+  <si>
+    <t>deprecated</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -183,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -269,11 +316,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -290,40 +346,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,19 +677,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -638,7 +711,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -649,7 +722,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -658,629 +731,1321 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
+      <c r="A5" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="3" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>39</v>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>10</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>12</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>14</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>17</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>18</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>19</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>20</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>21</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>22</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>23</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>24</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>25</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>26</v>
+      </c>
+      <c r="B39" s="6">
         <v>-1</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>1</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>2</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>4</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>5</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>6</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="6">
+        <v>2</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>7</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="B65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="B67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="15"/>
+      <c r="B69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="17"/>
+      <c r="B72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>1</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>2</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>3</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>4</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="22"/>
+      <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C81" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="15"/>
+      <c r="B83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="15"/>
+      <c r="B85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="13"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="17"/>
+      <c r="B89" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C89" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
+        <v>1</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
+        <v>2</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
+        <v>3</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="15"/>
+      <c r="B97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="C97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="2" t="s">
+      <c r="B98" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="15"/>
+      <c r="B99" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="C99" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="15"/>
+      <c r="B101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B103" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="3" t="s">
+      <c r="C103" s="13"/>
+      <c r="D103" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="17"/>
+      <c r="B104" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="D104" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>1</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>2</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="B107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>1</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>2</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>2</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="2"/>
+      <c r="D107" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:C44"/>
+  <mergeCells count="27">
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:C88"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
